--- a/data/administracion_de_tribunales/tribCasosCrim.xlsx
+++ b/data/administracion_de_tribunales/tribCasosCrim.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7407EE-890B-4900-A7B1-ACFCC1D7C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="5" r:id="rId1"/>
@@ -17,8 +18,9 @@
     <sheet name="2021-2022" sheetId="1" r:id="rId3"/>
     <sheet name="2022-2023" sheetId="2" r:id="rId4"/>
     <sheet name="2023-2024" sheetId="3" r:id="rId5"/>
+    <sheet name="2024-2025" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="23">
+  <si>
+    <t>Año fiscal/delitos</t>
+  </si>
   <si>
     <t>Pendiente al inicio</t>
   </si>
@@ -104,21 +109,18 @@
     <t>Tentativa de violación orden de protección Art 2.8</t>
   </si>
   <si>
-    <t>Año fiscal/delitos</t>
-  </si>
-  <si>
     <t>Violación orden de protección Art 2.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +136,13 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,13 +166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -444,12 +454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -460,44 +470,44 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>17</v>
@@ -517,8 +527,6 @@
       <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
       <c r="J2" s="4">
         <v>7</v>
       </c>
@@ -526,9 +534,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>6</v>
@@ -548,8 +556,6 @@
       <c r="G3" s="4">
         <v>74</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
       <c r="J3" s="4">
         <v>188</v>
       </c>
@@ -557,9 +563,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>93</v>
@@ -592,9 +598,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>38</v>
@@ -627,9 +633,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -652,7 +658,6 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="5"/>
       <c r="J6" s="4">
         <v>10</v>
       </c>
@@ -660,30 +665,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>16</v>
+      </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
       <c r="K7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>22</v>
@@ -697,18 +695,13 @@
       <c r="E8" s="4">
         <v>23</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
       <c r="J8" s="4">
         <v>23</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>796</v>
@@ -722,47 +715,39 @@
       <c r="E9" s="4">
         <v>741</v>
       </c>
-      <c r="F9" s="5"/>
       <c r="G9" s="4">
         <v>59</v>
       </c>
-      <c r="H9" s="5"/>
       <c r="I9" s="4">
         <v>5</v>
       </c>
       <c r="J9" s="4">
         <v>805</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4">
         <v>44</v>
       </c>
-      <c r="C10" s="5"/>
       <c r="D10" s="4">
         <v>44</v>
       </c>
       <c r="E10" s="4">
         <v>43</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
       <c r="I10" s="4">
         <v>1</v>
       </c>
       <c r="J10" s="4">
         <v>44</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -775,9 +760,9 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -790,7 +775,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -800,12 +785,10 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -814,12 +797,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -830,44 +813,44 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>19</v>
@@ -887,8 +870,6 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
       <c r="J2" s="4">
         <v>5</v>
       </c>
@@ -896,9 +877,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>82</v>
@@ -921,7 +902,6 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
       <c r="J3" s="4">
         <v>182</v>
       </c>
@@ -929,9 +909,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>148</v>
@@ -964,9 +944,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>176</v>
@@ -989,7 +969,6 @@
       <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="5"/>
       <c r="J5" s="4">
         <v>308</v>
       </c>
@@ -997,9 +976,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>18</v>
@@ -1019,7 +998,6 @@
       <c r="G6" s="4">
         <v>6</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="I6" s="4">
         <v>1</v>
       </c>
@@ -1030,9 +1008,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1045,9 +1023,9 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>11</v>
@@ -1061,22 +1039,19 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="5"/>
       <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="5"/>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="4">
         <v>13</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>468</v>
@@ -1090,47 +1065,39 @@
       <c r="E9" s="4">
         <v>425</v>
       </c>
-      <c r="F9" s="5"/>
       <c r="G9" s="4">
         <v>39</v>
       </c>
-      <c r="H9" s="5"/>
       <c r="I9" s="4">
         <v>6</v>
       </c>
       <c r="J9" s="4">
         <v>470</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4">
         <v>59</v>
       </c>
-      <c r="C10" s="5"/>
       <c r="D10" s="4">
         <v>59</v>
       </c>
       <c r="E10" s="4">
         <v>54</v>
       </c>
-      <c r="F10" s="5"/>
       <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
       <c r="J10" s="4">
         <v>59</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1143,9 +1110,9 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1158,7 +1125,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1180,8 +1147,6 @@
       <c r="G13" s="4">
         <v>25</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
       <c r="J13" s="4">
         <v>45</v>
       </c>
@@ -1189,7 +1154,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -1198,12 +1163,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -1214,44 +1179,44 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>17</v>
@@ -1280,9 +1245,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -1311,9 +1276,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>93</v>
@@ -1346,9 +1311,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>38</v>
@@ -1381,9 +1346,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1414,9 +1379,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -1435,9 +1400,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>22</v>
@@ -1460,9 +1425,9 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>796</v>
@@ -1489,9 +1454,9 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>44</v>
@@ -1514,9 +1479,9 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1537,9 +1502,9 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -1560,7 +1525,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +1558,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -1602,12 +1567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -1618,44 +1583,44 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>14</v>
@@ -1684,9 +1649,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>207</v>
@@ -1717,9 +1682,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>552</v>
@@ -1752,9 +1717,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>231</v>
@@ -1785,9 +1750,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
@@ -1816,9 +1781,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1843,9 +1808,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1870,9 +1835,9 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1901,9 +1866,9 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -1928,9 +1893,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1947,9 +1912,9 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1968,7 +1933,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +1968,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -2012,12 +1977,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -2028,44 +1993,44 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -2092,9 +2057,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>137</v>
@@ -2127,9 +2092,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>491</v>
@@ -2162,9 +2127,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>218</v>
@@ -2195,9 +2160,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
@@ -2226,9 +2191,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2251,9 +2216,9 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -2280,9 +2245,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -2311,9 +2276,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -2340,9 +2305,9 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2358,9 +2323,9 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2377,7 +2342,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2410,8 +2375,399 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D39882-B938-4222-93B0-59AD227E2069}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>184</v>
+      </c>
+      <c r="C3" s="5">
+        <v>466</v>
+      </c>
+      <c r="D3" s="5">
+        <v>650</v>
+      </c>
+      <c r="E3" s="5">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>149</v>
+      </c>
+      <c r="K3" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>591</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1137</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1728</v>
+      </c>
+      <c r="E4" s="5">
+        <v>775</v>
+      </c>
+      <c r="F4" s="5">
+        <v>152</v>
+      </c>
+      <c r="G4" s="5">
+        <v>233</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1168</v>
+      </c>
+      <c r="K4" s="5">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>286</v>
+      </c>
+      <c r="C5" s="5">
+        <v>506</v>
+      </c>
+      <c r="D5" s="5">
+        <v>792</v>
+      </c>
+      <c r="E5" s="5">
+        <v>182</v>
+      </c>
+      <c r="F5" s="5">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5">
+        <v>75</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>319</v>
+      </c>
+      <c r="K5" s="5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <v>43</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>710</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>768</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>45</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <v>9</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5">
+        <v>125</v>
+      </c>
+      <c r="C13" s="5">
+        <v>266</v>
+      </c>
+      <c r="D13" s="5">
+        <v>391</v>
+      </c>
+      <c r="E13" s="5">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>62</v>
+      </c>
+      <c r="K13" s="5">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
